--- a/Datascraping/output_excel_files_new/Manipal Academy of Higher Education-Manipal_tables.xlsx
+++ b/Datascraping/output_excel_files_new/Manipal Academy of Higher Education-Manipal_tables.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M50"/>
+  <dimension ref="A1:M89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -520,27 +520,27 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>UG [4 Years Program(s)]</t>
+          <t>UG [3 Years Program(s)]</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2280</t>
+          <t>905</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2040</t>
+          <t>987</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1860</t>
+          <t>938</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1860</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -563,27 +563,27 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>PG [2 Year Program(s)]</t>
+          <t>UG [4 Years Program(s)]</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>691</t>
+          <t>3722</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>661</t>
+          <t>3171</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3047</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3260</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -606,42 +606,257 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>UG [5 Years Program(s)]</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>860</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>860</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>860</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>860</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>860</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>PG [1 Year Program(s)]</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>PG [2 Year Program(s)]</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2210</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2482</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>PG [3 Year Program(s)]</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>426</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>428</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>352</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>PG [6 Years Program(s)]</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>(All programs of all years)</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>No. of Male Students</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>No. of Female Students</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Total Students</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Within State (Including male &amp; female)</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Outside State (Including male &amp; female)</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Outside Country@@ -649,7 +864,7 @@
 &amp; female)</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>Economically Backward@@ -657,7 +872,7 @@
 &amp; female)</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>Socially Challenged@@ -666,7 +881,7 @@
 &amp; female)</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>No. of students receiving full@@ -677,7 +892,7 @@
 Government</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>No. of students receiving full@@ -687,7 +902,7 @@
 Funds</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>No. of students receiving full@@ -697,7 +912,7 @@
 Bodies</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>No. of students who are not@@ -707,180 +922,520 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>UG [3 Years+Program(s)]</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1366</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1185</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2551</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>922</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1589</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>UG [4 Years Program(s)]</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>6528</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>1775</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>8303</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>1720</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>6413</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>170</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>614</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>259</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>179</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>687</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>7757</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>4054</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11811</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>3026</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8547</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>238</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>805</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>775</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>537</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>UG [5 Years+Program(s)]</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1435</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2048</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3483</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>589</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2837</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>PG [1 Year+Program(s)]</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>PG [2 Year Program(s)]</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>653</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>326</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>979</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>605</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>373</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2059</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2596</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4655</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>1844</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2788</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>324</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>663</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>826</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>PG [3 Year+Program(s)]</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>394</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>686</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1080</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>877</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>178</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>285</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>145</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>285</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>PG [6 Year+Program(s)]</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>Academic Year</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>No. of first year students intake in the year</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>No. of first year students admitted in the year</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>Academic Year</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>No. of students admitted through Lateral entry</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>Academic Year</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>No. of students graduating in@@ -888,13 +1443,13 @@
 time</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>No. of students placed</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>Median salary of placed graduates per@@ -902,222 +1457,235 @@
 Rs.)</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>No. of students selected for Higher Studies</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2016-17</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>1760</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1975</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>2017-18</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>853</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>797</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2018-19</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2019-20</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>679</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>300000(Three Lakhs )</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>483</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2018-19</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>853</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2019-20</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2020-21</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>739</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
         <is>
           <t>142</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>300000(Three Lakhs )</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>2019-20</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>1785</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>869</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>650000(Six Lakhs Fifty-Thousand)</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>241</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2017-18</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>1860</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>2297</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2018-19</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>112</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>938</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>2020-21</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>2001</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>1009</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>650000(Six Lakhs Fifty-Thousand)</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>186</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2018-19</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>1860</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>2002</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2019-20</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
         <is>
           <t>2021-22</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>1879</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>1090</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>800000(Eight Lakhs)</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>229</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>743</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>350000(Three Lakhs+Fifty Thousand)</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>Academic Year</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>No. of first year students intake in the year</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>No. of first year students admitted in the year</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>Academic Year</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>No. of students graduating in minimum-stipulated time</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>No. of students+admitted through+Lateral entry</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Academic Year</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>No. of students+graduating in+minimum stipulated+time</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
         <is>
           <t>No. of students placed</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>Median salary of placed graduates per@@ -1125,320 +1693,13 @@
 Rs.)</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>No. of students selected for Higher Studies</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2018-19</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>568</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>505</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2019-20</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>398</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>210</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>600000(Six Lakhs )</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>2019-20</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>613</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>529</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2020-21</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>390</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>214</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>750000(Seven Lakhs-Fifty Thousand)</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2020-21</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>661</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>538</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2021-22</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>461</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>309</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>746460(Seven lakhs-forty six thousand four-hundred sixty)</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Ph.D (Student pursuing doctoral program till 2021-22)</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr"/>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Total Students</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Full Time</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>426</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Part Time</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>No. of Ph.D students graduated (including Integrated Ph.D)</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr"/>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>2021-22</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>2020-21</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>2019-20</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Full Time</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
@@ -1446,30 +1707,55 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Part Time</t>
+          <t>2016-17</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3094</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2877</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
+          <t>2017-18</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2019-20</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2596</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>1796</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>630000(Six Lakhs+Thirty Thousand)</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>493</t>
+        </is>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
@@ -1477,57 +1763,111 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Financial Year</t>
+          <t>2017-18</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2021-22</t>
+          <t>3205</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>3157</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2018-19</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
           <t>2020-21</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>2019-20</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2904</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>1523</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>650000(Six Lakhs Fifty+Thousand)</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>405</t>
+        </is>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr"/>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2018-19</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Utilised Amount</t>
+          <t>3260</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Utilised Amount</t>
+          <t>2968</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Utilised Amount</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
+          <t>2019-20</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2021-22</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2760</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>1602</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>680000(Six Lakhs+Eighty Thousand )</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>555</t>
+        </is>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
@@ -1535,18 +1875,69 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Annual Capital Expenditure on Academic Activities and Resources (excluding expenditure on buildings)</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
+          <t>Academic Year</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>No. of first year+students intake in the+year</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>No. of first year+students admitted in+the year</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Academic Year</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>No. of students+admitted through+Lateral entry</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Academic Year</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>No. of students+graduating in+minimum stipulated+time</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>No. of students+placed</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Median salary of+placed graduates per+annum(Amount in+Rs.)</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>No. of students+selected for Higher+Studies</t>
+        </is>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
@@ -1554,33 +1945,55 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Library ( Books, Journals and e-Resources only)</t>
+          <t>2015-16</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>44376974 (Four crores forty three lakhs seventy six thousand-nine hundred seventy four)</t>
+          <t>860</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>37857586 (Three Crores Seventy Eight Lakhs Fifty Seven-Thousand Five Hundered Eighty Six)</t>
+          <t>857</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>38684216 (Three Crores Eighty Six Lakhs Eighty Four-Thousand Two Hundred Sixteen)</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
+          <t>2016-17</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2019-20</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>746</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>598</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>720000(Seven Lakhs+Twenty Thousand)</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
@@ -1588,33 +2001,55 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>New Equipment and software for Laboratories</t>
+          <t>2016-17</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>37653128 (Three crores seventy six lakhs fifty three thousand-one hundred twenty eight)</t>
+          <t>860</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>30223280 (Three Crores Two Lakhs Twenty Three Thousand-Two Hundred Eighty)</t>
+          <t>857</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>74971269 (Seven Crores Forty Nine Lakhs Seventy One-Thousand Two Hundred Sixty Nine)</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
+          <t>2017-18</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2020-21</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>782</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>607</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>840000(Eight Lakhs+Forty Thousand )</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
@@ -1622,31 +2057,56 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Engineering Workshops</t>
+          <t>2017-18</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0 (Zero)</t>
+          <t>860</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>29146 (Twenty Nine Thousand One Hundred Forty Six)</t>
+          <t>832</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2274236 (Twenty Two Lakhs Seventy Four Thousand Two-Hundred Thirty Six)</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
+          <t>2018-19</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2021-22</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>789</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>599</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>888000(Eight Lakhs+Eighty Eight+Thousand)</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
@@ -1654,33 +2114,55 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Other expenditure on creation of Capital Assets (For setting up-classrooms, seminar hall, conference hall , library, Lab, Engg-workshops excluding expenditure on Land and Building)</t>
+          <t>Academic Year</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>21943633 (Two crores nineteen lakhs forty three thousand six-hundred thrity three)</t>
+          <t>No. of first year+students intake in the+year</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>27930653 (Two Crores Seventy Nine Lakhs Thirty Thousand-Six Hundred Fifty Three)</t>
+          <t>No. of first year+students admitted in+the year</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>95296117 (Nine Crores Fifty Two Lakhs Ninety Six Thousand-One Hundred and Seventeen)</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
+          <t>Academic Year</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>No. of students graduating in minimum+stipulated time</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>No. of students+placed</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Median salary of+placed graduates per+annum(Amount in+Rs.)</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>No. of students+selected for Higher+Studies</t>
+        </is>
+      </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -1690,17 +2172,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Financial Year</t>
+          <t>2019-20</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2021-22</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2020-21</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1708,10 +2190,27 @@
           <t>2019-20</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>270000(Two Lakhs+Seventy Thousand)</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1719,26 +2218,46 @@
       <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr"/>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2020-21</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Utilised Amount</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Utilised Amount</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Utilised Amount</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
+          <t>2020-21</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>300000(Three Lakhs)</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -1748,16 +2267,44 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Annual Operational Expenditure</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
+          <t>2021-22</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2021-22</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>300000(Three Lakhs )</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -1767,31 +2314,55 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Salaries (Teaching and Non Teaching staff)</t>
+          <t>Academic Year</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1105278346 (One hundred ten crores fifty two lakhs seventy-eight thousand three hundred forty six)</t>
+          <t>No. of first year+students intake in the+year</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>917638929 (Ninety One Crore Seventy Six Lakh Thirty Eight-Thousand Nine Hundred And Twenty Nine)</t>
+          <t>No. of first year+students admitted in+the year</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>975406874 (Ninety Seven Crore Fifty Four Lakh Six Thousand-Eight Hundred And Seventy Four)</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
+          <t>Academic Year</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>No. of students graduating in minimum+stipulated time</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>No. of students+placed</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Median salary of+placed graduates per+annum(Amount in+Rs.)</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>No. of students+selected for Higher+Studies</t>
+        </is>
+      </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -1801,33 +2372,44 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Maintenance of Academic Infrastructure or consumables and-other running expenditures(excluding maintenance of hostels-and allied services,rent of the building, depreciation cost, etc)</t>
+          <t>2018-19</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>481300664 (Forty Eight Crore Thirteen Lakh Six Hundred And-Sixty Four)</t>
+          <t>2179</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>424855295 (Forty Two Crore Forty Eight Lakh Fifty Five-Thousand Two Hundred And Ninety Five)</t>
+          <t>2139</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>543515725 (Fifty Four Crore Thirty Five Lakh Fifteen Thousand-Seven Hundred And Twenty Five)</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
+          <t>2019-20</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>1597</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1387</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>1000000(Ten Lakhs)</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -1837,30 +2419,45 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Seminars/Conferences/Workshops</t>
+          <t>2019-20</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>11075244 (One crore ten lakhs seventy five thousand two-hundred forty four)</t>
+          <t>2742</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>673309 (Six Lakhs Seventy Three Thousand Three Hundred-Nine)</t>
+          <t>2161</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>6216068 (Sixty Two Lakhs Sixteen Thousand Sixty Eight)</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
+          <t>2020-21</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>1667</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1171</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>1080000(Ten Lakhs+Eighty Thousand)</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -1870,28 +2467,45 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Financial Year</t>
+          <t>2020-21</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
+          <t>2482</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2172</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t>2021-22</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>2020-21</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>2019-20</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>2064</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1586</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>1168000(Eleven Lakhs+Sixty Eight Thousand)</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
@@ -1901,30 +2515,69 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Total no. of Sponsored Projects</t>
+          <t>Academic Year</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>No. of first year+students intake in the+year</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>No. of first year+students admitted in+the year</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>102</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
+          <t>Academic Year</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>No. of students+admitted through+Lateral entry</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Academic Year</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>No. of students+graduating in+minimum stipulated+time</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>No. of students+placed</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Median salary of+placed graduates per+annum(Amount in+Rs.)</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>No. of students+selected for Higher+Studies</t>
+        </is>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
@@ -1932,30 +2585,55 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Total no. of Funding Agencies</t>
+          <t>2017-18</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>262</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>252</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>67</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
+          <t>2018-19</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2019-20</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>1350000(Thirteen+Lakhs Fifty Thousand)</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
@@ -1963,30 +2641,55 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Total Amount Received (Amount in Rupees)</t>
+          <t>2018-19</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1716397</t>
+          <t>274</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>18203425</t>
+          <t>272</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>32787813</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+          <t>2019-20</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2020-21</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>1530000(Fifteen Lakhs+Thirty Thousand)</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
@@ -1994,32 +2697,55 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Amount Received in Words</t>
+          <t>2019-20</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Seventeen lakhs sixteen thousand three hundred ninety seven</t>
+          <t>352</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>One Crore Eighty Two Lakhs Three Thousand Four Hundred-Twenty Five</t>
+          <t>305</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Three Crores Twenty Seven Lakhs Eighty Seven Thousand-Eight Hundred Thirteen</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
+          <t>2020-21</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2021-22</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>286</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>1560000(Fifteen Lakhs+Sixty Thousand )</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
@@ -2027,28 +2753,55 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Financial Year</t>
+          <t>Academic Year</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2021-22</t>
+          <t>No. of first year+students intake in the+year</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2020-21</t>
+          <t>No. of first year+students admitted in+the year</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2019-20</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
+          <t>Academic Year</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>No. of students graduating in minimum+stipulated time</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>No. of students+placed</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Median salary of+placed graduates per+annum(Amount in+Rs.)</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>No. of students+selected for Higher+Studies</t>
+        </is>
+      </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -2058,28 +2811,44 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Total no. of Consultancy Projects</t>
+          <t>2014-15</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1381</t>
+          <t>30</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1138</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>1367</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
+          <t>2019-20</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>400000(Four Lakhs )</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
@@ -2089,28 +2858,44 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Total no. of Client Organizations</t>
+          <t>2015-16</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1020</t>
+          <t>30</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>591</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>737</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
+          <t>2020-21</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>600000(Six Lakhs )</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
@@ -2120,28 +2905,45 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Total Amount Received (Amount in Rupees)</t>
+          <t>2016-17</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2683466</t>
+          <t>30</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2074824</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2572938</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
+          <t>2021-22</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>650000(Six Lakhs Fifty+Thousand )</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
@@ -2151,26 +2953,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Amount Received in Words</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Twenty six lakhs eighty three thousand four hundred sixty six</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Twenty Lakhs Seventy Four Thousand Eight Hundred Twenty-Four</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Twenty Five Lakhs Seventy Two Thousand Nine Hundred-Thirty Eight</t>
-        </is>
-      </c>
+          <t>Ph.D (Student pursuing doctoral program till 2021-22)</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
@@ -2182,14 +2970,10 @@
       <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>1. Do your institution buildings have Lifts/Ramps?</t>
-        </is>
-      </c>
+      <c r="A47" t="inlineStr"/>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Yes, more than 80% of the buildings</t>
+          <t>Total Students</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -2207,13 +2991,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2. Do your institution have provision for walking aids, including wheelchairs and transportation from one building to another for-handicapped students?</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>1159</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -2231,12 +3014,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>3. Do your institution buildings have specially designed toilets for handicapped students?</t>
+          <t>Part Time</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Yes, more than 80% of the buildings</t>
+          <t>381</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -2254,14 +3037,10 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Number of faculty members entered</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>676</t>
-        </is>
-      </c>
+          <t>No. of Ph.D students graduated (including Integrated Ph.D)</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
@@ -2274,6 +3053,1169 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
     </row>
+    <row r="51">
+      <c r="A51" t="inlineStr"/>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2021-22</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>2020-21</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2019-20</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Full Time</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Part Time</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Financial Year</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2021-22</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>2020-21</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2019-20</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr"/>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Utilised Amount</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Utilised Amount</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Utilised Amount</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Annual Capital Expenditure on Academic Activities and Resources (excluding expenditure on buildings)</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Library</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>278739164 (Twenty Seven Crores Eighty Seven Lakhs Thirty+Nine Thousand One Hundred Sixty Four)</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>246673360 (Twenty Four Crores Sixty Six Lakhs Seventy+Three Thousand Three Hundred  Sixty)</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>211719933 (Twenty One Crores Seventeen Lakhs Nineteen+Thousand Nine Hundred Thirty Three)</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>New Equipment for Laboratories</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>154829274 (Fifteen Crores Forty Eight Lakhs Twenty Nine+Thousand Two Hundred Seventy Four )</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>134826515 (Thirteen Crores Forty Eight Lakhs Twenty Six+Thousand Five Hundred Fifteen )</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>165945659 (Sixteen Crores Fifty Nine Lakhs Forty Five+Thousand Six Hundred Fifty Nine)</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Engineering Workshops</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>125854 (One Lakh Twenty Five Thousand Eight Hundred Fifty+Four)</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>4886977 (Forty Eight Lakhs Eighty Six Thousand Nine+Hundred Seventy Seven)</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>48466507 (Four Crores Eighty Four Lakhs Sixty Six Thousand+Five Hundred Seven)</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Studios</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>477778 (Four Lakhs Seventy Seven Thousand Seven Hundred+Seventy Eight)</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>999373 (Nine Lakhs Ninety Nine Thousand Three Hundred+Seventy Three)</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>11266843 (One Crore Twelve Lakhs Sixty Six Thousand Eight+Hundred Forty Three)</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Other expenditure on creation of Capital Assets (excluding+expenditure on Land and Building)</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>937723795 (Ninety Three Crores Seventy Seven Lakhs Twenty+Three Thousand Seven Hundred Ninety Five )</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>323797329 (Thirty Two Crores Thirty Seven Lakhs Ninety+Seven Thousand Three Hundred Twenty Nine )</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>470617573 (Forty Seven Crores Six Lakhs Seventeen+Thousand Five Hundred Seventy Three)</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Financial Year</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>2021-22</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>2020-21</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2019-20</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr"/>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Utilised Amount</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Utilised Amount</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Utilised Amount</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Annual Operational Expenditure</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Salaries (Teaching and Non Teaching staff)</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>7134071485 (Seven Hundred Thirteen Crores Forty Lakhs+Seventy One Thousand Four Hundred Eighty Five)</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>6096476843 (Six Hundred Nine Crores Sixty Four Lakhs+Seventy Six Thousand Eight Hundred Forty Three)</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>6133292202 (Six Hundred Thirteen Crores Thirty Two Lakhs+Ninety Two Thousand Two Hundred and Two )</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Maintenance of Academic Infrastructure or consumables and+other running expenditures(excluding maintenance of hostels+and allied services,rent of the building, depreciation cost, etc)</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>8338859218 (Eight Hundred Thirty Three Crores Eighty Eight+Lakhs Fifty Nine Thousand Two Hundred Eighteen )</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>7592859041 (Seven Hundred Fifty Nine Crores Twenty Eight+Lakhs Fifty Nine Thousand Forty One )</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>8955546456 (Eight Hundred Ninety Five Crores Fifty Five+Lakhs Forty Six Thousand Four Hundred Fifty Six )</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Seminars/Conferences/Workshops</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>26027749 (Two Crores Sixty Lakhs Twenty Seven Thousand+Seven Hundred Forty Nine)</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>15657781 (One Crore Fifty Six Lakhs Fifty Seven Thousand+Seven Hundred Eighty One )</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>31805691 (Three Crores Eighteen Lakhs Five Thousand Six+Hundred Ninety One )</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Financial Year</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>2021-22</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>2020-21</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2019-20</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Total no. of Sponsored Projects</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>356</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>383</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>407</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Total no. of Funding Agencies</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Total Amount Received (Amount in Rupees)</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>318223448</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>232544804</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>264444975</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Amount Received in Words</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Thirty One Crores Eighty Two Lakhs Twenty Three Thousand+Four Hundred Forty Eight</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Twenty Three Crores Twenty Five Lakhs Forty Four Thousand+Eight Hundred Four</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Twenty Six Crores Forty Four Lakhs Forty Four Thousand Nine+Hundred Seventy Five</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Financial Year</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>2021-22</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>2020-21</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2019-20</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Total no. of Consultancy Projects</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>2485</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2557</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Total no. of Client Organizations</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>526</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>521</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>512</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Total Amount Received (Amount in Rupees)</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>995661919</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>899678389</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>937402286</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Amount Received in Words</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Ninety Nine Crores Fifty Six Lakhs Sixty One Thousand Nine+Hundred Nineteen</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Eighty Nine Crores Ninety Six Lakhs Seventy Eight Thousand+Three Hundred Eighty Nine</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Ninety Three Crores Seventy Four Lakhs Two Thousand Two+Hundred Eighty Six</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Financial Year</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>2021-22</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>2020-21</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2019-20</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Total no. of Executive Development Programs/ Management+Development Programs</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Total no. of Participants</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>7183</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>8523</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>9936</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Total Annual Earnings (Amount in Rupees)(Excluding Lodging+&amp; Boarding Charges)</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>60349326</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>40440345</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>84015021</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Total Annual Earnings in Words</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Six Crores Three Lakhs Forty Nine Thousand Three Hundred+Twenty Six</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Four Crores Four Lakhs Forty Thousand Three Hundred Forty+Five</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Eight Crores Forty Lakhs Fifteen Thousand Twenty One</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>1. Do your institution buildings have Lifts/Ramps?</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Yes, more than 80% of the buildings</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2. Do your institution have provision for walking aids, including wheelchairs and transportation from one building to another for+handicapped students?</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>3. Do your institution buildings have specially designed toilets for handicapped students?</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Yes, more than 80% of the buildings</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>1. Does your institute have a valid NAAC Accreditation?</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Valid from</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Valid upto</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>CGPA</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>31-05-2022</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>30-05-2027</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Number of faculty members entered</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>2740</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
